--- a/modelT20.xlsx
+++ b/modelT20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AK47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,29 +617,29 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2442</v>
+        <v>1784</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Moeen Ali</t>
+          <t>Hasan Murad</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023_T20_382</t>
+          <t>2023_T20_416</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>109.5</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -648,25 +648,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>38.1</v>
+        <v>60</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -678,85 +678,85 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
         <v>8</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AF2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2468</v>
+        <v>1801</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Harry Brook</t>
+          <t>Hasan Mahmud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2023_T20_382</t>
+          <t>2023_T20_095</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>116.7</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -765,25 +765,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.67</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -795,85 +795,85 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>61.1</v>
       </c>
       <c r="W3" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2542</v>
+        <v>1807</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jos Buttler </t>
+          <t>Litton Das</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2023_T20_382</t>
+          <t>2023_T20_030</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,13 +882,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>54.5</v>
+        <v>60</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -936,16 +936,16 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AF4" t="n">
         <v>0</v>
@@ -968,29 +968,29 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2554</v>
+        <v>1851</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ben Duckett</t>
+          <t>Mahedi Hasan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2023_T20_378</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>116.7</v>
+        <v>95</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -999,25 +999,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>8.300000000000001</v>
+        <v>40</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>7.33</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -1029,172 +1029,172 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="W5" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC5" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2565</v>
+        <v>1936</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Will Jacks</t>
+          <t>Mahmudullah</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2023_T20_382</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>100</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>24</v>
+      </c>
+      <c r="X6" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
         <v>7</v>
       </c>
-      <c r="E6" t="n">
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="n">
         <v>5</v>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>140</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>60</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>17</v>
-      </c>
-      <c r="X6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AI6" t="n">
         <v>8</v>
       </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>6</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
@@ -1202,116 +1202,116 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2603</v>
+        <v>1960</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liam Livingstone</t>
+          <t>Mehidy Hasan Miraz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2023_T20_382</t>
+          <t>2023_T20_094</t>
         </is>
       </c>
       <c r="D7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>13</v>
+      </c>
+      <c r="R7" t="n">
+        <v>12</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>50</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI7" t="n">
         <v>28</v>
       </c>
-      <c r="E7" t="n">
-        <v>29</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>20</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
@@ -1319,29 +1319,29 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2619</v>
+        <v>1964</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tymal Mills</t>
+          <t>Jaker Ali</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2023_T20_380</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>30.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1356,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>69.2</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1380,85 +1380,85 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE8" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AF8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2714</v>
+        <v>1968</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Adil Rashid</t>
+          <t>Saif Hasan</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2023_T20_382</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
+        <v>30.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1473,25 +1473,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>69.2</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1500,79 +1500,79 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>45.8</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2721</v>
+        <v>1973</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rehan Ahmed</t>
+          <t>Ripon Mondol</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2023_T20_382</t>
+          <t>2023_T20_284</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1590,19 +1590,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1614,22 +1614,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>20.8</v>
+        <v>41.7</v>
       </c>
       <c r="W10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z10" t="n">
         <v>26</v>
@@ -1641,25 +1641,25 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>7</v>
       </c>
       <c r="AF10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
         <v>1</v>
@@ -1670,29 +1670,29 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2741</v>
+        <v>2063</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Phil Salt</t>
+          <t>Mustafizur Rahman</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2023_T20_382</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>172.7</v>
+        <v>233.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1701,115 +1701,115 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>22.7</v>
+        <v>33.3</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>41.7</v>
       </c>
       <c r="W11" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB11" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2766</v>
+        <v>2088</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Reece Topley</t>
+          <t>Najmul Hossain Shanto (Captain)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2023_T20_382</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>233.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1821,112 +1821,112 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>11</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
         <v>12</v>
       </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y12" t="n">
+      <c r="AC12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="n">
         <v>3</v>
       </c>
-      <c r="Z12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>2</v>
-      </c>
       <c r="AF12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2793</v>
+        <v>2123</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chris Woakes</t>
+          <t>Nasum Ahmed</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2023_T20_382</t>
+          <t>2023_T20_095</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1941,40 +1941,40 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>66.7</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>8.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>35</v>
+        <v>41.7</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
         <v>2</v>
@@ -1983,22 +1983,22 @@
         <v>3</v>
       </c>
       <c r="Z13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB13" t="n">
         <v>1</v>
       </c>
       <c r="AC13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF13" t="n">
         <v>3</v>
@@ -2007,43 +2007,43 @@
         <v>3</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
         <v>1</v>
       </c>
       <c r="AK13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2796</v>
+        <v>2126</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gus Atkinson</t>
+          <t>Parvez Hossain Emon</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2023_T20_380</t>
+          <t>2023_T20_282</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>59.4</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -2082,202 +2082,202 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>8</v>
       </c>
-      <c r="X14" t="n">
-        <v>10</v>
-      </c>
       <c r="Y14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
         <v>8</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AE14" t="n">
         <v>8</v>
       </c>
-      <c r="AD14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>10</v>
-      </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>2906</v>
+        <v>2135</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rohit Sharma </t>
+          <t>Rakibul Hasan</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2023_T20_284</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>175.4</v>
+        <v>400</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W15" t="n">
         <v>11</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE15" t="n">
         <v>16</v>
       </c>
-      <c r="AD15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2989</v>
+        <v>2141</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Virat Kohli</t>
+          <t>Shakib Al Hasan (Captain)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2023_T20_284</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2325,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="X16" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2340,31 +2340,31 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="AD16" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
         <v>0</v>
@@ -2372,29 +2372,29 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3040</v>
+        <v>2155</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Axar Patel</t>
+          <t>Shamim Hossain</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024_T20_003</t>
+          <t>2023_T20_416</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>64.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2409,109 +2409,109 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>42.9</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="X17" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Y17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>3</v>
+        <v>-0</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="AI17" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3084</v>
+        <v>2267</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Arshdeep Singh</t>
+          <t>Soumya Sarkar</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024_T20_003</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2520,115 +2520,115 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="W18" t="n">
+        <v>17</v>
+      </c>
+      <c r="X18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="n">
         <v>4</v>
       </c>
-      <c r="N18" t="n">
-        <v>32</v>
-      </c>
-      <c r="O18" t="n">
-        <v>3</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="AI18" t="n">
         <v>8</v>
       </c>
-      <c r="Q18" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="R18" t="n">
-        <v>8</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
-      <c r="V18" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>33</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3098</v>
+        <v>2323</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mukesh Kumar</t>
+          <t>Taskin Ahmed</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>147.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2637,115 +2637,115 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>8</v>
+        <v>6.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
         <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>66.7</v>
+        <v>54.2</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AA19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG19" t="n">
         <v>4</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3112</v>
+        <v>2335</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Shubman Gill</t>
+          <t>Towhid Hridoy</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024_T20_002</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>191.7</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>41.7</v>
+        <v>100</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X20" t="n">
         <v>24</v>
@@ -2808,16 +2808,16 @@
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
@@ -2840,29 +2840,29 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3146</v>
+        <v>2368</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kuldeep Yadav</t>
+          <t>Yasir Ali</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2023_T20_284</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>237.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2871,25 +2871,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>18.8</v>
       </c>
       <c r="M21" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>7.64</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2901,88 +2901,88 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>63.6</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Y21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="AA21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AC21" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="AF21" t="n">
-        <v>4</v>
+        <v>-0</v>
       </c>
       <c r="AG21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3170</v>
+        <v>2376</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ravi Bishnoi</t>
+          <t>Rishad Hossain</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>176.7</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2991,43 +2991,43 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>46.7</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
-        <v>25</v>
+        <v>33.3</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X22" t="n">
         <v>1</v>
@@ -3036,70 +3036,70 @@
         <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB22" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AC22" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG22" t="n">
         <v>4</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
         <v>27</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3186</v>
+        <v>2380</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Yashasvi Jaiswal</t>
+          <t>Sumon Khan</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>66.7</v>
+        <v>176.7</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -3108,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
-        <v>66.7</v>
+        <v>46.7</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3144,43 +3144,43 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="X23" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="AD23" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="AF23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
         <v>0</v>
@@ -3191,32 +3191,32 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3205</v>
+        <v>2384</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Avesh Khan</t>
+          <t>Tanzim Hasan Sakib</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>176.7</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -3225,22 +3225,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>46.7</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -3252,85 +3252,85 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3220</v>
+        <v>2388</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tilak varma</t>
+          <t>Zakir Hasan</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024_T20_002</t>
+          <t>2023_T20_284</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>118.2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -3339,13 +3339,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>31.8</v>
+        <v>100</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3378,46 +3378,46 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AF25" t="n">
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
@@ -3425,44 +3425,44 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3231</v>
+        <v>206</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Rinku Singh</t>
+          <t>Hazratullah Zazai</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2024_T20_018</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="E26" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>176.9</v>
+        <v>204.5</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>23.1</v>
+        <v>27.3</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -3495,10 +3495,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -3510,16 +3510,16 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="AC26" t="n">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AF26" t="n">
         <v>0</v>
@@ -3542,44 +3542,44 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3238</v>
+        <v>242</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Jitesh Sharma</t>
+          <t>Ibrahim Zadran</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024_T20_003</t>
+          <t>2024_T20_027</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>141.2</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>100</v>
+        <v>25.5</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -3612,10 +3612,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X27" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
         <v>0</v>
@@ -3659,16 +3659,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3260</v>
+        <v>298</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sanju Samson</t>
+          <t>Karim Janat</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2024_T20_018</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -3699,16 +3699,16 @@
         <v>100</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -3720,85 +3720,85 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W28" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="X28" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AC28" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="AD28" t="n">
         <v>9</v>
       </c>
       <c r="AE28" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3282</v>
+        <v>394</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Shivam Dubey</t>
+          <t>Mohammad Nabi</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2024_T20_027</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3813,19 +3813,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>100</v>
+        <v>37.5</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -3840,82 +3840,82 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="W29" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="X29" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE29" t="n">
         <v>14</v>
       </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>44</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>18</v>
-      </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="n">
         <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3323</v>
+        <v>438</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Washington Sundar</t>
+          <t>Mujeeb Ur Rahman</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2024_T20_003</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>233.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3924,25 +3924,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -3954,57 +3954,2046 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>4</v>
       </c>
       <c r="Z30" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AA30" t="n">
         <v>1</v>
       </c>
       <c r="AB30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF30" t="n">
         <v>4</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>3</v>
       </c>
       <c r="AG30" t="n">
         <v>4</v>
       </c>
       <c r="AH30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Najibullah Zadran</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024_T20_017</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>15</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>60</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>60</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>16</v>
+      </c>
+      <c r="X31" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Naveen-ul-Haq</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2024_T20_027</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nangyal Kharoti</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2024_T20_026</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>100</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Noor Ahmad</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2024_T20_018</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="n">
+        <v>37</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>37</v>
+      </c>
+      <c r="R34" t="n">
+        <v>24</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="W34" t="n">
+        <v>10</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Qais Ahmad</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2024_T20_018</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>17</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>17</v>
+      </c>
+      <c r="R35" t="n">
+        <v>12</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="W35" t="n">
+        <v>6</v>
+      </c>
+      <c r="X35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI35" t="n">
         <v>22</v>
       </c>
-      <c r="AI30" t="n">
+      <c r="AJ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Rahmanullah Gurbaz</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2024_T20_027</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>6</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>100</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>50</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>32</v>
+      </c>
+      <c r="X36" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>38</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Rashid Khan (Captain)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2024_T20_027</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>6</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>100</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>50</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>32</v>
+      </c>
+      <c r="X37" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>38</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Samiullah Shinwari</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2020_T20_025</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>28</v>
+      </c>
+      <c r="E38" t="n">
+        <v>29</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>25</v>
+      </c>
+      <c r="X38" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sharafuddin Ashraf</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2024_T20_004</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>250</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>25</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="W39" t="n">
+        <v>10</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Usman Ghani</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2023_T20_053</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>15</v>
+      </c>
+      <c r="E40" t="n">
+        <v>17</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>23</v>
+      </c>
+      <c r="X40" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Ijaz Ahmad Ahmadzai</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2024_T20_027</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>250</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>50</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>9</v>
+      </c>
+      <c r="X41" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Mohammad Ibrahim</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2024_T20_027</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>250</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>50</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>9</v>
+      </c>
+      <c r="X42" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Mohammad Shahzad</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2023_T20_285</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" t="n">
+        <v>6</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>27</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="n">
+      <c r="X43" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>33</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Mohammmad Saleem</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2023_T20_285</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>4</v>
+      </c>
+      <c r="E44" t="n">
+        <v>6</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>27</v>
+      </c>
+      <c r="X44" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>33</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>919</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Sediqullah Atal</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2024_T20_027</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>19</v>
+      </c>
+      <c r="E45" t="n">
+        <v>19</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>100</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2</v>
+      </c>
+      <c r="L45" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>10</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>922</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Shahidullah</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2023_T20_285</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>49</v>
+      </c>
+      <c r="E46" t="n">
+        <v>43</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>114</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Zahir Khan</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2023_T20_283</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="n">
+        <v>20</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2</v>
+      </c>
+      <c r="P47" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>10</v>
+      </c>
+      <c r="R47" t="n">
+        <v>9</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>50</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK47" t="n">
         <v>1</v>
       </c>
     </row>
